--- a/bots/crawl_ch/output/clothes_2022-08-10.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-10.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1734,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2771,7 +2771,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -2975,7 +2975,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3283,7 +3283,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3440,7 +3440,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3491,7 +3491,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3644,7 +3644,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3695,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4003,7 +4003,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4105,7 +4105,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4349,7 +4349,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-10 07:03:24</t>
+          <t>2022-08-10 20:58:01</t>
         </is>
       </c>
     </row>
